--- a/project/presentation/ece574_data.xlsx
+++ b/project/presentation/ece574_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,6 +247,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VW-32node-haswell machine</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -863,11 +888,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1665971888"/>
-        <c:axId val="-1665969568"/>
+        <c:axId val="-1617813504"/>
+        <c:axId val="-1617811184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1665971888"/>
+        <c:axId val="-1617813504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1665969568"/>
+        <c:crossAx val="-1617811184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,7 +957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1665969568"/>
+        <c:axId val="-1617811184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +967,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1665971888"/>
+        <c:crossAx val="-1617813504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,6 +1063,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VW-24node-pi-cluster</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1702,11 +1752,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1815115696"/>
-        <c:axId val="-1815124752"/>
+        <c:axId val="-1617650416"/>
+        <c:axId val="-1617648096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1815115696"/>
+        <c:axId val="-1617650416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815124752"/>
+        <c:crossAx val="-1617648096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1771,7 +1821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1815124752"/>
+        <c:axId val="-1617648096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1830,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1815115696"/>
+        <c:crossAx val="-1617650416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1876,6 +1926,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K,N,M-4node-pi-cluster</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2492,11 +2567,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1698280432"/>
-        <c:axId val="-1815204800"/>
+        <c:axId val="-1617608896"/>
+        <c:axId val="-1617606576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1698280432"/>
+        <c:axId val="-1617608896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815204800"/>
+        <c:crossAx val="-1617606576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2561,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1815204800"/>
+        <c:axId val="-1617606576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2645,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1698280432"/>
+        <c:crossAx val="-1617608896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4350,13 +4425,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4378,15 +4453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4408,15 +4483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>670560</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4703,8 +4778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
